--- a/data/전국 전세가율 지도코드 데이터.xlsx
+++ b/data/전국 전세가율 지도코드 데이터.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBD3DF-70C9-49B4-B182-58077FE08B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="192">
   <si>
     <t>종로구</t>
   </si>
@@ -622,14 +623,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천중구1</t>
+    <t>인천중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산중구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,6 +821,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -851,6 +873,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1026,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2600,7 +2639,7 @@
         <v>74</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C112" s="2">
         <v>72.3</v>
@@ -3527,7 +3566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/전국 전세가율 지도코드 데이터.xlsx
+++ b/data/전국 전세가율 지도코드 데이터.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBD3DF-70C9-49B4-B182-58077FE08B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282CD5F6-FA9D-43F5-893B-95F2CE2ACC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1215" windowWidth="10995" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산동구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,11 +619,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천중구</t>
+    <t>울산중구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>울산중구</t>
+    <t>인천동구1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천중구1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1085,7 @@
         <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>136</v>
@@ -1519,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2">
         <v>67.3</v>
@@ -1645,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2">
         <v>54.3</v>
@@ -1673,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2">
         <v>59.6</v>
@@ -1757,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2">
         <v>62.8</v>
@@ -1855,7 +1855,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2">
         <v>65.400000000000006</v>
@@ -1869,7 +1869,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="2">
         <v>52.6</v>
@@ -1911,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2">
         <v>57.8</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C64" s="2">
         <v>64.900000000000006</v>
@@ -2023,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2">
         <v>75.099999999999994</v>
@@ -2065,7 +2065,7 @@
         <v>47</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C71" s="2">
         <v>67.099999999999994</v>
@@ -2093,7 +2093,7 @@
         <v>47</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="2">
         <v>68</v>
@@ -2149,7 +2149,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="2">
         <v>66.599999999999994</v>
@@ -2163,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="2">
         <v>65.2</v>
@@ -2247,7 +2247,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="2">
         <v>70</v>
@@ -2331,7 +2331,7 @@
         <v>65</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2">
         <v>70.900000000000006</v>
@@ -2373,7 +2373,7 @@
         <v>65</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" s="2">
         <v>74.599999999999994</v>
@@ -2401,7 +2401,7 @@
         <v>65</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2">
         <v>62.7</v>
@@ -2457,7 +2457,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2">
         <v>69.7</v>
@@ -2471,7 +2471,7 @@
         <v>69</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2">
         <v>72.099999999999994</v>
@@ -2499,7 +2499,7 @@
         <v>69</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C102" s="2">
         <v>75.5</v>
@@ -2527,7 +2527,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104" s="2">
         <v>72.400000000000006</v>
@@ -2541,7 +2541,7 @@
         <v>71</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2">
         <v>71.3</v>
@@ -2583,7 +2583,7 @@
         <v>74</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="2">
         <v>71.7</v>
@@ -2597,7 +2597,7 @@
         <v>74</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2">
         <v>79</v>
@@ -2639,7 +2639,7 @@
         <v>74</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C112" s="2">
         <v>72.3</v>
@@ -2765,7 +2765,7 @@
         <v>85</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="2">
         <v>82.4</v>
@@ -2779,7 +2779,7 @@
         <v>85</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C122" s="2">
         <v>84</v>
@@ -2821,7 +2821,7 @@
         <v>85</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C125" s="2">
         <v>78.599999999999994</v>
@@ -2849,7 +2849,7 @@
         <v>85</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C127" s="2">
         <v>76.900000000000006</v>
@@ -3255,7 +3255,7 @@
         <v>112</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="2">
         <v>79.900000000000006</v>

--- a/data/전국 전세가율 지도코드 데이터.xlsx
+++ b/data/전국 전세가율 지도코드 데이터.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282CD5F6-FA9D-43F5-893B-95F2CE2ACC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F231C8-AA1B-4067-B005-6EB15270FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1215" windowWidth="10995" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$177</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,9 +99,6 @@
     <t>서초구</t>
   </si>
   <si>
-    <t>강남구</t>
-  </si>
-  <si>
     <t>송파구</t>
   </si>
   <si>
@@ -506,14 +515,6 @@
     <t>용인시처인구</t>
   </si>
   <si>
-    <t>서울중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울강서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산동구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산서구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,11 +620,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천동구1</t>
+    <t>강남구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천중구1</t>
+    <t>강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +735,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1082,1029 +1101,1029 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2">
-        <v>52.6</v>
+        <v>68.7</v>
       </c>
       <c r="D2" s="3">
-        <v>11680</v>
+        <v>41281</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2">
-        <v>60.3</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3">
-        <v>11740</v>
+        <v>41285</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2">
-        <v>63.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D4" s="3">
-        <v>11305</v>
+        <v>41287</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
-        <v>58.5</v>
+        <v>43.5</v>
       </c>
       <c r="D5" s="3">
-        <v>11500</v>
+        <v>41290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>63.7</v>
+        <v>56.1</v>
       </c>
       <c r="D6" s="3">
-        <v>11620</v>
+        <v>41210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
-        <v>58.9</v>
+        <v>73.2</v>
       </c>
       <c r="D7" s="3">
-        <v>11215</v>
+        <v>41610</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
-        <v>64.400000000000006</v>
+        <v>60.9</v>
       </c>
       <c r="D8" s="3">
-        <v>11530</v>
+        <v>41310</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>61.1</v>
+        <v>63.1</v>
       </c>
       <c r="D9" s="3">
-        <v>11545</v>
+        <v>41410</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
-        <v>51.3</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D10" s="3">
-        <v>11350</v>
+        <v>41570</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
-        <v>53.7</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D11" s="3">
-        <v>11320</v>
+        <v>41360</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
-        <v>60.4</v>
+        <v>69.8</v>
       </c>
       <c r="D12" s="3">
-        <v>11230</v>
+        <v>41250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="C13" s="2">
-        <v>60.6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>11590</v>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2">
-        <v>57.8</v>
+        <v>54.3</v>
       </c>
       <c r="D14" s="3">
-        <v>11440</v>
+        <v>41190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2">
-        <v>59.8</v>
+        <v>59.6</v>
       </c>
       <c r="D15" s="3">
-        <v>11410</v>
+        <v>41131</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2">
-        <v>56.2</v>
+        <v>52.6</v>
       </c>
       <c r="D16" s="3">
-        <v>11650</v>
+        <v>41133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2">
-        <v>54.8</v>
+        <v>67.3</v>
       </c>
       <c r="D17" s="3">
-        <v>11200</v>
+        <v>41113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2">
-        <v>63.1</v>
+        <v>62.8</v>
       </c>
       <c r="D18" s="3">
-        <v>11290</v>
+        <v>41117</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2">
-        <v>51.9</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="D19" s="3">
-        <v>11710</v>
+        <v>41111</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2">
-        <v>55.4</v>
+        <v>57.8</v>
       </c>
       <c r="D20" s="3">
-        <v>11470</v>
+        <v>41115</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>53.9</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D21" s="3">
-        <v>11560</v>
+        <v>41390</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2">
-        <v>50.3</v>
+        <v>61.9</v>
       </c>
       <c r="D22" s="3">
-        <v>11170</v>
+        <v>41273</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2">
-        <v>59.5</v>
+        <v>62.8</v>
       </c>
       <c r="D23" s="3">
-        <v>11380</v>
+        <v>41135</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>64.7</v>
+        <v>75.5</v>
       </c>
       <c r="D24" s="3">
-        <v>11110</v>
+        <v>41550</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2">
-        <v>63.2</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3">
-        <v>11140</v>
+        <v>41173</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2">
-        <v>63.3</v>
-      </c>
-      <c r="D26" s="4">
-        <v>11260</v>
+        <v>65.3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>41171</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
-        <v>43.5</v>
+        <v>72.7</v>
       </c>
       <c r="D27" s="3">
-        <v>41290</v>
+        <v>41630</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
-        <v>56.1</v>
+        <v>84.2</v>
       </c>
       <c r="D28" s="3">
-        <v>41210</v>
+        <v>41670</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>73.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="D29" s="3">
-        <v>41610</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2">
-        <v>60.9</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3">
-        <v>41310</v>
+        <v>41463</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2">
-        <v>63.1</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D31" s="3">
-        <v>41410</v>
+        <v>41465</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2">
-        <v>67.3</v>
+        <v>73.3</v>
       </c>
       <c r="D32" s="3">
-        <v>41113</v>
+        <v>41461</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3">
-        <v>41463</v>
+        <v>41430</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
-        <v>66.900000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="D34" s="3">
-        <v>41570</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>68.900000000000006</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D35" s="3">
-        <v>41360</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
-        <v>61.9</v>
+        <v>74.5</v>
       </c>
       <c r="D36" s="3">
-        <v>41273</v>
+        <v>41480</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
-        <v>68.7</v>
+        <v>69.5</v>
       </c>
       <c r="D37" s="3">
-        <v>41281</v>
+        <v>41220</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>69.8</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="D38" s="3">
-        <v>41250</v>
+        <v>41650</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2">
-        <v>56</v>
+        <v>62.1</v>
       </c>
       <c r="D39" s="3">
-        <v>41173</v>
+        <v>41450</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2">
-        <v>65.3</v>
+        <v>62.9</v>
       </c>
       <c r="D40" s="3">
-        <v>41171</v>
+        <v>41590</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2">
-        <v>54.3</v>
+        <v>52.6</v>
       </c>
       <c r="D41" s="3">
-        <v>41190</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>62.8</v>
+        <v>60.3</v>
       </c>
       <c r="D42" s="3">
-        <v>41135</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>59.6</v>
+        <v>63.5</v>
       </c>
       <c r="D43" s="3">
-        <v>41131</v>
+        <v>11305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2">
-        <v>65.599999999999994</v>
+        <v>58.5</v>
       </c>
       <c r="D44" s="3">
-        <v>41465</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
-        <v>66.099999999999994</v>
+        <v>63.7</v>
       </c>
       <c r="D45" s="3">
-        <v>41390</v>
+        <v>11620</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>75.5</v>
+        <v>58.9</v>
       </c>
       <c r="D46" s="3">
-        <v>41550</v>
+        <v>11215</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2">
-        <v>72.7</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D47" s="3">
-        <v>41630</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
-        <v>84.2</v>
+        <v>61.1</v>
       </c>
       <c r="D48" s="3">
-        <v>41670</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2">
-        <v>62.8</v>
+        <v>51.3</v>
       </c>
       <c r="D49" s="3">
-        <v>41117</v>
+        <v>11350</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2">
-        <v>69.400000000000006</v>
+        <v>53.7</v>
       </c>
       <c r="D50" s="3">
-        <v>41370</v>
+        <v>11320</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>58</v>
+        <v>60.4</v>
       </c>
       <c r="D51" s="3">
-        <v>41430</v>
+        <v>11230</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
-        <v>72.2</v>
+        <v>60.6</v>
       </c>
       <c r="D52" s="3">
-        <v>41150</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>81.900000000000006</v>
+        <v>57.8</v>
       </c>
       <c r="D53" s="3">
-        <v>41500</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2">
-        <v>73</v>
+        <v>59.8</v>
       </c>
       <c r="D54" s="3">
-        <v>41285</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>72.900000000000006</v>
+        <v>56.2</v>
       </c>
       <c r="D55" s="3">
-        <v>41287</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2">
-        <v>65.400000000000006</v>
+        <v>54.8</v>
       </c>
       <c r="D56" s="3">
-        <v>41111</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>52.6</v>
+        <v>63.1</v>
       </c>
       <c r="D57" s="3">
-        <v>41133</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2">
-        <v>73.3</v>
+        <v>51.9</v>
       </c>
       <c r="D58" s="3">
-        <v>41461</v>
+        <v>11710</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>74.5</v>
+        <v>55.4</v>
       </c>
       <c r="D59" s="3">
-        <v>41480</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2">
-        <v>57.8</v>
+        <v>53.9</v>
       </c>
       <c r="D60" s="3">
-        <v>41115</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2">
-        <v>69.5</v>
+        <v>50.3</v>
       </c>
       <c r="D61" s="3">
-        <v>41220</v>
+        <v>11170</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>72.599999999999994</v>
+        <v>59.5</v>
       </c>
       <c r="D62" s="3">
-        <v>41650</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>62.1</v>
+        <v>64.7</v>
       </c>
       <c r="D63" s="3">
-        <v>41450</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="2">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D64" s="2">
-        <v>41190</v>
+        <v>63.2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>11140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2">
-        <v>62.9</v>
-      </c>
-      <c r="D65" s="4">
-        <v>41590</v>
+        <v>63.3</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11260</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2">
         <v>70.7</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="7">
         <v>28245</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2">
         <v>70.2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="7">
         <v>28200</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2">
         <v>75.099999999999994</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="7">
         <v>28140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C69" s="2">
         <v>74.5</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="7">
         <v>28177</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2">
         <v>68.5</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="7">
         <v>28237</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C71" s="2">
         <v>67.099999999999994</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="7">
         <v>28260</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2">
         <v>65</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="7">
         <v>28185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C73" s="2">
         <v>68</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="7">
         <v>28110</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>15</v>
@@ -2118,10 +2137,10 @@
     </row>
     <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2">
         <v>66</v>
@@ -2132,10 +2151,10 @@
     </row>
     <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>73</v>
@@ -2146,10 +2165,10 @@
     </row>
     <row r="77" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C77" s="2">
         <v>66.599999999999994</v>
@@ -2160,10 +2179,10 @@
     </row>
     <row r="78" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2">
         <v>65.2</v>
@@ -2174,10 +2193,10 @@
     </row>
     <row r="79" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2">
         <v>61.7</v>
@@ -2188,10 +2207,10 @@
     </row>
     <row r="80" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
         <v>69.2</v>
@@ -2202,10 +2221,10 @@
     </row>
     <row r="81" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2">
         <v>72.099999999999994</v>
@@ -2216,10 +2235,10 @@
     </row>
     <row r="82" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2">
         <v>72.8</v>
@@ -2230,10 +2249,10 @@
     </row>
     <row r="83" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2">
         <v>68.7</v>
@@ -2244,10 +2263,10 @@
     </row>
     <row r="84" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2">
         <v>70</v>
@@ -2258,10 +2277,10 @@
     </row>
     <row r="85" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2">
         <v>50.9</v>
@@ -2272,10 +2291,10 @@
     </row>
     <row r="86" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2">
         <v>62.4</v>
@@ -2286,10 +2305,10 @@
     </row>
     <row r="87" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C87" s="2">
         <v>65.400000000000006</v>
@@ -2300,7 +2319,7 @@
     </row>
     <row r="88" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
@@ -2314,10 +2333,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2">
         <v>52.4</v>
@@ -2328,10 +2347,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2">
         <v>70.900000000000006</v>
@@ -2342,10 +2361,10 @@
     </row>
     <row r="91" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2">
         <v>75.5</v>
@@ -2356,10 +2375,10 @@
     </row>
     <row r="92" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2">
         <v>75.8</v>
@@ -2370,10 +2389,10 @@
     </row>
     <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2">
         <v>74.599999999999994</v>
@@ -2384,10 +2403,10 @@
     </row>
     <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2">
         <v>80</v>
@@ -2398,10 +2417,10 @@
     </row>
     <row r="95" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C95" s="2">
         <v>62.7</v>
@@ -2412,10 +2431,10 @@
     </row>
     <row r="96" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C96" s="2">
         <v>63.4</v>
@@ -2426,7 +2445,7 @@
     </row>
     <row r="97" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
@@ -2440,10 +2459,10 @@
     </row>
     <row r="98" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C98" s="2">
         <v>75.7</v>
@@ -2454,10 +2473,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C99" s="2">
         <v>69.7</v>
@@ -2468,10 +2487,10 @@
     </row>
     <row r="100" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C100" s="2">
         <v>72.099999999999994</v>
@@ -2482,10 +2501,10 @@
     </row>
     <row r="101" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2">
         <v>78.599999999999994</v>
@@ -2496,10 +2515,10 @@
     </row>
     <row r="102" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2">
         <v>75.5</v>
@@ -2510,10 +2529,10 @@
     </row>
     <row r="103" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2">
         <v>71.2</v>
@@ -2524,10 +2543,10 @@
     </row>
     <row r="104" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C104" s="2">
         <v>72.400000000000006</v>
@@ -2538,10 +2557,10 @@
     </row>
     <row r="105" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C105" s="2">
         <v>71.3</v>
@@ -2552,10 +2571,10 @@
     </row>
     <row r="106" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C106" s="2">
         <v>69</v>
@@ -2566,7 +2585,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>1</v>
@@ -2580,10 +2599,10 @@
     </row>
     <row r="108" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C108" s="2">
         <v>71.7</v>
@@ -2594,10 +2613,10 @@
     </row>
     <row r="109" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2">
         <v>79</v>
@@ -2608,10 +2627,10 @@
     </row>
     <row r="110" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2">
         <v>77.900000000000006</v>
@@ -2622,10 +2641,10 @@
     </row>
     <row r="111" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C111" s="2">
         <v>75.900000000000006</v>
@@ -2636,10 +2655,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C112" s="2">
         <v>72.3</v>
@@ -2650,10 +2669,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2">
         <v>48.5</v>
@@ -2664,10 +2683,10 @@
     </row>
     <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2">
         <v>79.099999999999994</v>
@@ -2678,10 +2697,10 @@
     </row>
     <row r="115" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2">
         <v>79.3</v>
@@ -2692,10 +2711,10 @@
     </row>
     <row r="116" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2">
         <v>72.2</v>
@@ -2706,10 +2725,10 @@
     </row>
     <row r="117" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2">
         <v>73.7</v>
@@ -2720,10 +2739,10 @@
     </row>
     <row r="118" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2">
         <v>76.3</v>
@@ -2734,10 +2753,10 @@
     </row>
     <row r="119" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C119" s="2">
         <v>82.7</v>
@@ -2748,10 +2767,10 @@
     </row>
     <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2">
         <v>69.7</v>
@@ -2762,10 +2781,10 @@
     </row>
     <row r="121" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C121" s="2">
         <v>82.4</v>
@@ -2776,10 +2795,10 @@
     </row>
     <row r="122" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C122" s="2">
         <v>84</v>
@@ -2790,10 +2809,10 @@
     </row>
     <row r="123" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2">
         <v>69.8</v>
@@ -2804,10 +2823,10 @@
     </row>
     <row r="124" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2">
         <v>74</v>
@@ -2818,10 +2837,10 @@
     </row>
     <row r="125" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C125" s="2">
         <v>78.599999999999994</v>
@@ -2832,10 +2851,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C126" s="2">
         <v>76</v>
@@ -2846,10 +2865,10 @@
     </row>
     <row r="127" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C127" s="2">
         <v>76.900000000000006</v>
@@ -2860,10 +2879,10 @@
     </row>
     <row r="128" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2">
         <v>74</v>
@@ -2874,10 +2893,10 @@
     </row>
     <row r="129" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C129" s="2">
         <v>72.599999999999994</v>
@@ -2888,10 +2907,10 @@
     </row>
     <row r="130" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="2">
         <v>74.599999999999994</v>
@@ -2902,10 +2921,10 @@
     </row>
     <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2">
         <v>83.1</v>
@@ -2916,10 +2935,10 @@
     </row>
     <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C132" s="2">
         <v>81.3</v>
@@ -2930,10 +2949,10 @@
     </row>
     <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C133" s="2">
         <v>72.7</v>
@@ -2944,10 +2963,10 @@
     </row>
     <row r="134" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2">
         <v>79.7</v>
@@ -2958,10 +2977,10 @@
     </row>
     <row r="135" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C135" s="2">
         <v>82.7</v>
@@ -2972,10 +2991,10 @@
     </row>
     <row r="136" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="2">
         <v>77.599999999999994</v>
@@ -2986,10 +3005,10 @@
     </row>
     <row r="137" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C137" s="2">
         <v>68</v>
@@ -3000,10 +3019,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C138" s="2">
         <v>73.900000000000006</v>
@@ -3014,10 +3033,10 @@
     </row>
     <row r="139" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C139" s="2">
         <v>80.8</v>
@@ -3028,10 +3047,10 @@
     </row>
     <row r="140" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2">
         <v>69.3</v>
@@ -3042,10 +3061,10 @@
     </row>
     <row r="141" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" s="2">
         <v>71.099999999999994</v>
@@ -3056,10 +3075,10 @@
     </row>
     <row r="142" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2">
         <v>79</v>
@@ -3070,10 +3089,10 @@
     </row>
     <row r="143" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2">
         <v>79.7</v>
@@ -3084,10 +3103,10 @@
     </row>
     <row r="144" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C144" s="2">
         <v>80.900000000000006</v>
@@ -3098,10 +3117,10 @@
     </row>
     <row r="145" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C145" s="2">
         <v>70.400000000000006</v>
@@ -3112,10 +3131,10 @@
     </row>
     <row r="146" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2">
         <v>84.3</v>
@@ -3126,10 +3145,10 @@
     </row>
     <row r="147" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C147" s="2">
         <v>71.8</v>
@@ -3140,10 +3159,10 @@
     </row>
     <row r="148" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C148" s="2">
         <v>83.2</v>
@@ -3154,10 +3173,10 @@
     </row>
     <row r="149" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C149" s="2">
         <v>75.7</v>
@@ -3168,10 +3187,10 @@
     </row>
     <row r="150" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2">
         <v>79.900000000000006</v>
@@ -3182,10 +3201,10 @@
     </row>
     <row r="151" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C151" s="2">
         <v>68.3</v>
@@ -3196,10 +3215,10 @@
     </row>
     <row r="152" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C152" s="2">
         <v>78.099999999999994</v>
@@ -3210,10 +3229,10 @@
     </row>
     <row r="153" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C153" s="2">
         <v>74.8</v>
@@ -3224,10 +3243,10 @@
     </row>
     <row r="154" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2">
         <v>80.900000000000006</v>
@@ -3238,10 +3257,10 @@
     </row>
     <row r="155" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2">
         <v>75.099999999999994</v>
@@ -3252,10 +3271,10 @@
     </row>
     <row r="156" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C156" s="2">
         <v>79.900000000000006</v>
@@ -3266,10 +3285,10 @@
     </row>
     <row r="157" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C157" s="2">
         <v>71.8</v>
@@ -3280,10 +3299,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2">
         <v>83.7</v>
@@ -3294,10 +3313,10 @@
     </row>
     <row r="159" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2">
         <v>71</v>
@@ -3308,10 +3327,10 @@
     </row>
     <row r="160" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2">
         <v>73.7</v>
@@ -3322,10 +3341,10 @@
     </row>
     <row r="161" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C161" s="2">
         <v>76.599999999999994</v>
@@ -3336,10 +3355,10 @@
     </row>
     <row r="162" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2">
         <v>77.099999999999994</v>
@@ -3350,10 +3369,10 @@
     </row>
     <row r="163" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C163" s="2">
         <v>77.7</v>
@@ -3364,10 +3383,10 @@
     </row>
     <row r="164" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2">
         <v>69.2</v>
@@ -3378,10 +3397,10 @@
     </row>
     <row r="165" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2">
         <v>79</v>
@@ -3392,10 +3411,10 @@
     </row>
     <row r="166" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166" s="2">
         <v>78.900000000000006</v>
@@ -3406,10 +3425,10 @@
     </row>
     <row r="167" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2">
         <v>81.2</v>
@@ -3420,10 +3439,10 @@
     </row>
     <row r="168" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2">
         <v>73</v>
@@ -3434,10 +3453,10 @@
     </row>
     <row r="169" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2">
         <v>78.8</v>
@@ -3448,10 +3467,10 @@
     </row>
     <row r="170" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" s="2">
         <v>70.099999999999994</v>
@@ -3462,10 +3481,10 @@
     </row>
     <row r="171" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" s="2">
         <v>72.900000000000006</v>
@@ -3476,10 +3495,10 @@
     </row>
     <row r="172" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C172" s="2">
         <v>73</v>
@@ -3490,10 +3509,10 @@
     </row>
     <row r="173" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C173" s="2">
         <v>78.2</v>
@@ -3504,10 +3523,10 @@
     </row>
     <row r="174" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2">
         <v>71.099999999999994</v>
@@ -3518,10 +3537,10 @@
     </row>
     <row r="175" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C175" s="2">
         <v>72.099999999999994</v>
@@ -3532,10 +3551,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C176" s="2">
         <v>67.599999999999994</v>
@@ -3546,10 +3565,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C177" s="2">
         <v>62.8</v>
@@ -3559,6 +3578,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B66:D73">
+    <sortCondition ref="B66:B73"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
